--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H2">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I2">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J2">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>0.8993447661</v>
+        <v>0.6034868919033334</v>
       </c>
       <c r="R2">
-        <v>8.094102894899999</v>
+        <v>5.431382027130001</v>
       </c>
       <c r="S2">
-        <v>0.1146934069572065</v>
+        <v>0.05674986286205117</v>
       </c>
       <c r="T2">
-        <v>0.1146934069572065</v>
+        <v>0.05674986286205118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H3">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I3">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J3">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>0.09577523480555557</v>
+        <v>0.06812831796666667</v>
       </c>
       <c r="R3">
-        <v>0.86197711325</v>
+        <v>0.6131548617</v>
       </c>
       <c r="S3">
-        <v>0.01221421238665903</v>
+        <v>0.006406556221025345</v>
       </c>
       <c r="T3">
-        <v>0.01221421238665903</v>
+        <v>0.006406556221025345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H4">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I4">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J4">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>0.05264739858888889</v>
+        <v>0.06787591444999999</v>
       </c>
       <c r="R4">
-        <v>0.4738265873</v>
+        <v>0.6108832300499999</v>
       </c>
       <c r="S4">
-        <v>0.006714120923590588</v>
+        <v>0.006382821049393766</v>
       </c>
       <c r="T4">
-        <v>0.006714120923590586</v>
+        <v>0.006382821049393767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.892098</v>
       </c>
       <c r="I5">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J5">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N5">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q5">
-        <v>4.041680264232</v>
+        <v>3.812669341869556</v>
       </c>
       <c r="R5">
-        <v>36.375122378088</v>
+        <v>34.31402407682601</v>
       </c>
       <c r="S5">
-        <v>0.5154353444971593</v>
+        <v>0.3585305086031631</v>
       </c>
       <c r="T5">
-        <v>0.5154353444971594</v>
+        <v>0.3585305086031632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.892098</v>
       </c>
       <c r="I6">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J6">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q6">
         <v>0.4304165553711112</v>
@@ -818,10 +818,10 @@
         <v>3.873748998340001</v>
       </c>
       <c r="S6">
-        <v>0.05489100843981423</v>
+        <v>0.0404749147306742</v>
       </c>
       <c r="T6">
-        <v>0.05489100843981424</v>
+        <v>0.0404749147306742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.892098</v>
       </c>
       <c r="I7">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J7">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N7">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q7">
-        <v>0.2365988660417778</v>
+        <v>0.4288219372233333</v>
       </c>
       <c r="R7">
-        <v>2.129389794376</v>
+        <v>3.85939743501</v>
       </c>
       <c r="S7">
-        <v>0.03017344521414145</v>
+        <v>0.0403249622421979</v>
       </c>
       <c r="T7">
-        <v>0.03017344521414145</v>
+        <v>0.04032496224219791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H8">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I8">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J8">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N8">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q8">
-        <v>1.789502234916</v>
+        <v>4.262208539177</v>
       </c>
       <c r="R8">
-        <v>16.105520114244</v>
+        <v>38.359876852593</v>
       </c>
       <c r="S8">
-        <v>0.2282151582091153</v>
+        <v>0.4008036517991224</v>
       </c>
       <c r="T8">
-        <v>0.2282151582091153</v>
+        <v>0.4008036517991224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H9">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I9">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J9">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q9">
-        <v>0.1905720733522223</v>
+        <v>0.4811655439300001</v>
       </c>
       <c r="R9">
-        <v>1.71514866017</v>
+        <v>4.33048989537</v>
       </c>
       <c r="S9">
-        <v>0.02430364993221595</v>
+        <v>0.04524717769072215</v>
       </c>
       <c r="T9">
-        <v>0.02430364993221595</v>
+        <v>0.04524717769072215</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H10">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I10">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J10">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N10">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q10">
-        <v>0.1047569752875556</v>
+        <v>0.479382909645</v>
       </c>
       <c r="R10">
-        <v>0.942812777588</v>
+        <v>4.314446186805</v>
       </c>
       <c r="S10">
-        <v>0.0133596534400976</v>
+        <v>0.04507954480164997</v>
       </c>
       <c r="T10">
-        <v>0.0133596534400976</v>
+        <v>0.04507954480164998</v>
       </c>
     </row>
   </sheetData>
